--- a/stock_historical_data/1wk/TCS.NS.xlsx
+++ b/stock_historical_data/1wk/TCS.NS.xlsx
@@ -64253,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TCS.NS.xlsx
+++ b/stock_historical_data/1wk/TCS.NS.xlsx
@@ -60887,7 +60887,9 @@
       <c r="P1140" t="n">
         <v>0</v>
       </c>
-      <c r="Q1140" t="inlineStr"/>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TCS.NS.xlsx
+++ b/stock_historical_data/1wk/TCS.NS.xlsx
@@ -64365,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TCS.NS.xlsx
+++ b/stock_historical_data/1wk/TCS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1141"/>
+  <dimension ref="A1:R1143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64369,6 +64369,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>3832.050048828125</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>3877.800048828125</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>3780.050048828125</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>3810.75</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>3810.75</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>10771816</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>3808.75</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>3960</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>3791.300048828125</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>3904.14990234375</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>3904.14990234375</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>11938134</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TCS.NS.xlsx
+++ b/stock_historical_data/1wk/TCS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64301,7 +64301,7 @@
         <v>23</v>
       </c>
       <c r="O1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1140" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,711 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>3884</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>4047.35009765625</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>3884</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>4011.800048828125</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>4002.50390625</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>10973987</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>4022</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>4199.9501953125</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>3895.60009765625</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>4183.9501953125</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>4174.25537109375</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>24115752</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>4235.7001953125</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>4358.75</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>4144.89990234375</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>4302.39990234375</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>4292.4306640625</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>16394269</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>4299.9501953125</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>4422.4501953125</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>4265</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>4387.85009765625</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>4387.85009765625</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>12433939</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>4431</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>4270</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>4283.0498046875</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>4283.0498046875</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>10888326</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>4239</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>4258.25</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>4110.5</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>4228.75</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>4228.75</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>9972323</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>4230</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>4427</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>4183</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>4416.0498046875</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>4416.0498046875</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>9116108</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>4421</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>4565</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>4390.35009765625</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>4463.89990234375</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>4463.89990234375</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>9803623</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>4489</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>4592.25</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>4457.2998046875</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>4553.75</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>4553.75</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>10393782</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>4576</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>4588</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>4436.7001953125</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>4456.75</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>4456.75</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>7537240</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>4455</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>4549.35009765625</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>4430.5</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>4522.60009765625</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>4522.60009765625</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>8097450</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>4527</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>4546.0498046875</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>4227.5</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>4284.89990234375</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>4284.89990234375</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>14191722</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>4378</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>4240</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>4308.7001953125</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>4308.7001953125</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>14404146</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TCS.NS.xlsx
+++ b/stock_historical_data/1wk/TCS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1156"/>
+  <dimension ref="A1:R1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64533,7 +64533,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64587,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64641,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>1</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64695,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64749,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64803,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64857,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64911,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64957,7 +64973,7 @@
         <v>35</v>
       </c>
       <c r="O1152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1152" t="n">
         <v>0</v>
@@ -64965,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65019,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65073,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65127,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65181,7 +65205,1361 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>4209.365989229444</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>4221.001763140562</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>4133.856917201922</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>4175.3427734375</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>10642363</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>4196.601347165058</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>4219.529130575923</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>4038.071649814122</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>4074.156982421875</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>12235048</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>4065.122877695729</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>4094.531385946043</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>3993.639509582546</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>4048.479248046875</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>12139874</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>4067.756490252011</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>4074.991259341368</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>3932.462992004765</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>3993.884033203125</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>9926395</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>4005.105022298654</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>4069.134386234984</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>3897.864578976908</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>3921.684814453125</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>8808688</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>3904.065788244307</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>4139.807611009256</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>3851.848134979329</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>4081.930419921875</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>12401187</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>4063.425670756825</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>4167.860498525397</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>4051.860036976369</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>4080.84765625</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>5918372</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>4146.894755871459</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>4188.186720017956</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>3927.590612958272</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>4177.9990234375</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>10571077</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>4212.843736169785</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>4308.715364322219</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>4129.817151927626</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>4203.83740234375</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>12247798</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>4203.000316111447</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>4418.564032558381</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>4163.676971023121</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>4375.74658203125</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>12573325</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>4360.933222223086</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>4424.371666662094</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>4325.448584466717</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>4403.701171875</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>9671413</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>4389.035023874885</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>4404.783972155217</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>4087.344233379785</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>4104.86474609375</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>13579407</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>4134.14788561331</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>4151.816428951701</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>4050.334048848395</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>4099.50048828125</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>5443788</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>4085.867633963529</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>4133.409577760064</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>3968.784098537197</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>4035.5693359375</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>7358547</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>4041.081716212509</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>4229.576941801279</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>3948.605908169707</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>4198.71875</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>17222696</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>4178.392743867745</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>4255.119841742144</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>4035.716926596611</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>4059.58642578125</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>13498125</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>4145.7998046875</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>4191.35009765625</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>4030</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>4152.35009765625</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>9401710</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>4102</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>4156.35009765625</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>4028.300048828125</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>4073.14990234375</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>8698509</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>4030.89990234375</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>4150</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>3998.699951171875</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>4029.39990234375</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>9340233</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>4040</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>4052</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>3900</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>3934.85009765625</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>8787706</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>3856.5</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>3934</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>3751.300048828125</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>3786</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>13038860</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>3743.14990234375</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>3763.199951171875</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>3457</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>3483.25</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>17519344</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>3485</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>3625</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>3464.300048828125</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>3611.199951171875</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>15127898</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>3606.5</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>3622.10009765625</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>3484.10009765625</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>3511.050048828125</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>7867247</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>3489</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>3616.25</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>3462.75</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>3578.10009765625</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>12749267</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>3710</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>3566.60009765625</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>3606.14990234375</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>11285033</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
